--- a/Regeln/Kampf-Regeln/Brelande_Waffenmodi.xlsx
+++ b/Regeln/Kampf-Regeln/Brelande_Waffenmodi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mars27\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Brelanden_Projekt\Regeln\Kampf-Regeln\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FACFC1C-16AF-4DC6-9298-0D82E32C5ECE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052CC5EE-3ACA-4D95-A6DC-4565B2A8B747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{344A2A18-7BCF-45D8-A795-EF0BA6A0063E}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{344A2A18-7BCF-45D8-A795-EF0BA6A0063E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Effektivität" sheetId="2" r:id="rId2"/>
     <sheet name="Nahkampf-Distanz-Modi" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
   <si>
     <t>Waffentypen:</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lang </t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -136,10 +139,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -460,13 +463,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -482,37 +485,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -530,29 +533,29 @@
       <selection activeCell="B10" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -578,8 +581,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -588,46 +591,46 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -636,85 +639,85 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G7">
@@ -723,15 +726,15 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -744,7 +747,7 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G8">
@@ -756,31 +759,31 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I9">
@@ -790,8 +793,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -801,10 +804,10 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G10" t="s">
@@ -816,7 +819,7 @@
       <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -831,18 +834,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E61CD1-CA25-45AE-8D08-92C511CA8DFA}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -853,35 +856,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -891,53 +894,53 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -951,11 +954,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9">
@@ -963,6 +966,11 @@
       </c>
       <c r="D9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Regeln/Kampf-Regeln/Brelande_Waffenmodi.xlsx
+++ b/Regeln/Kampf-Regeln/Brelande_Waffenmodi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mars27\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\Sonstiges\Brelande\Projektfiles\Regeln\Kampf-Regeln\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FACFC1C-16AF-4DC6-9298-0D82E32C5ECE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8142851-E048-44EE-9032-BF92249D587E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{344A2A18-7BCF-45D8-A795-EF0BA6A0063E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{344A2A18-7BCF-45D8-A795-EF0BA6A0063E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
   <si>
     <t>Waffentypen:</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lang </t>
+  </si>
+  <si>
+    <t>lol</t>
   </si>
 </sst>
 </file>
@@ -136,10 +139,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -460,13 +463,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -482,37 +485,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -530,29 +533,29 @@
       <selection activeCell="B10" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -578,8 +581,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -588,46 +591,46 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -636,85 +639,85 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G7">
@@ -723,15 +726,15 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -744,7 +747,7 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G8">
@@ -756,31 +759,31 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I9">
@@ -790,8 +793,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -801,10 +804,10 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G10" t="s">
@@ -816,7 +819,7 @@
       <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -831,18 +834,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E61CD1-CA25-45AE-8D08-92C511CA8DFA}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -853,35 +856,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -891,53 +894,56 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -951,11 +957,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9">
